--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/App-Cav1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N2">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O2">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P2">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q2">
-        <v>54325.14101558999</v>
+        <v>117748.7404294721</v>
       </c>
       <c r="R2">
-        <v>488926.2691403099</v>
+        <v>1059738.663865249</v>
       </c>
       <c r="S2">
-        <v>0.167814811873176</v>
+        <v>0.2237271249003609</v>
       </c>
       <c r="T2">
-        <v>0.167814811873176</v>
+        <v>0.2237271249003608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H3">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J3">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>188.379193</v>
       </c>
       <c r="O3">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P3">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q3">
-        <v>6961.265966493847</v>
+        <v>7235.102857122761</v>
       </c>
       <c r="R3">
-        <v>62651.39369844462</v>
+        <v>65115.92571410485</v>
       </c>
       <c r="S3">
-        <v>0.02150392096048239</v>
+        <v>0.01374697304343572</v>
       </c>
       <c r="T3">
-        <v>0.02150392096048239</v>
+        <v>0.01374697304343571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H4">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J4">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N4">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O4">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P4">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q4">
-        <v>19894.31104599458</v>
+        <v>21562.47831840077</v>
       </c>
       <c r="R4">
-        <v>179048.7994139512</v>
+        <v>194062.3048656069</v>
       </c>
       <c r="S4">
-        <v>0.06145515691476883</v>
+        <v>0.04096953616919299</v>
       </c>
       <c r="T4">
-        <v>0.06145515691476883</v>
+        <v>0.04096953616919297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="H5">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="I5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="J5">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N5">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O5">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P5">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q5">
-        <v>66.27066379924244</v>
+        <v>156.4391257137156</v>
       </c>
       <c r="R5">
-        <v>596.4359741931819</v>
+        <v>1407.95213142344</v>
       </c>
       <c r="S5">
-        <v>0.0002047155105403012</v>
+        <v>0.0002972403415119285</v>
       </c>
       <c r="T5">
-        <v>0.0002047155105403012</v>
+        <v>0.0002972403415119284</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J6">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N6">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O6">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P6">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q6">
-        <v>90578.37111560271</v>
+        <v>188896.2914617725</v>
       </c>
       <c r="R6">
-        <v>815205.3400404244</v>
+        <v>1700066.623155953</v>
       </c>
       <c r="S6">
-        <v>0.2798040101576808</v>
+        <v>0.358910201832657</v>
       </c>
       <c r="T6">
-        <v>0.2798040101576808</v>
+        <v>0.3589102018326569</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>188.379193</v>
       </c>
       <c r="O7">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P7">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q7">
         <v>11606.78316447526</v>
@@ -883,10 +883,10 @@
         <v>104461.0484802774</v>
       </c>
       <c r="S7">
-        <v>0.03585430422794841</v>
+        <v>0.02205333337119932</v>
       </c>
       <c r="T7">
-        <v>0.03585430422794841</v>
+        <v>0.02205333337119931</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J8">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N8">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O8">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P8">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q8">
-        <v>33170.54047768055</v>
+        <v>34591.21663819775</v>
       </c>
       <c r="R8">
-        <v>298534.8642991249</v>
+        <v>311320.9497437798</v>
       </c>
       <c r="S8">
-        <v>0.1024665174526851</v>
+        <v>0.06572463889671018</v>
       </c>
       <c r="T8">
-        <v>0.1024665174526851</v>
+        <v>0.06572463889671015</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="J9">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N9">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O9">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P9">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q9">
-        <v>110.495594994636</v>
+        <v>250.9646436901201</v>
       </c>
       <c r="R9">
-        <v>994.4603549517238</v>
+        <v>2258.68179321108</v>
       </c>
       <c r="S9">
-        <v>0.0003413299466911306</v>
+        <v>0.0004768424526635575</v>
       </c>
       <c r="T9">
-        <v>0.0003413299466911306</v>
+        <v>0.0004768424526635572</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H10">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J10">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N10">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O10">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P10">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q10">
-        <v>24883.16830469212</v>
+        <v>61879.13683505329</v>
       </c>
       <c r="R10">
-        <v>223948.5147422291</v>
+        <v>556912.2315154796</v>
       </c>
       <c r="S10">
-        <v>0.07686614576227499</v>
+        <v>0.1175727343233421</v>
       </c>
       <c r="T10">
-        <v>0.076866145762275</v>
+        <v>0.1175727343233421</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H11">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J11">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>188.379193</v>
       </c>
       <c r="O11">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P11">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q11">
-        <v>3188.548606036426</v>
+        <v>3802.18011741488</v>
       </c>
       <c r="R11">
-        <v>28696.93745432783</v>
+        <v>34219.62105673391</v>
       </c>
       <c r="S11">
-        <v>0.009849687906321746</v>
+        <v>0.007224288114844521</v>
       </c>
       <c r="T11">
-        <v>0.009849687906321746</v>
+        <v>0.007224288114844517</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N12">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O12">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P12">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q12">
-        <v>9112.41978960195</v>
+        <v>11331.48041754533</v>
       </c>
       <c r="R12">
-        <v>82011.77810641757</v>
+        <v>101983.323757908</v>
       </c>
       <c r="S12">
-        <v>0.02814901138061683</v>
+        <v>0.02153024758851362</v>
       </c>
       <c r="T12">
-        <v>0.02814901138061684</v>
+        <v>0.02153024758851362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="H13">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="I13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="J13">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N13">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O13">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P13">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q13">
-        <v>30.35471330865</v>
+        <v>82.21164855851113</v>
       </c>
       <c r="R13">
-        <v>273.19241977785</v>
+        <v>739.9048370266001</v>
       </c>
       <c r="S13">
-        <v>9.37681966052043E-05</v>
+        <v>0.0001562052867676443</v>
       </c>
       <c r="T13">
-        <v>9.376819660520431E-05</v>
+        <v>0.0001562052867676442</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H14">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J14">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N14">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O14">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P14">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q14">
-        <v>46666.59437427529</v>
+        <v>53906.6665787411</v>
       </c>
       <c r="R14">
-        <v>419999.3493684776</v>
+        <v>485159.9992086699</v>
       </c>
       <c r="S14">
-        <v>0.1441569337746112</v>
+        <v>0.1024247349282511</v>
       </c>
       <c r="T14">
-        <v>0.1441569337746112</v>
+        <v>0.1024247349282511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H15">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J15">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>188.379193</v>
       </c>
       <c r="O15">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P15">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q15">
-        <v>5979.893822946347</v>
+        <v>3312.309549633137</v>
       </c>
       <c r="R15">
-        <v>53819.04440651713</v>
+        <v>29810.78594669823</v>
       </c>
       <c r="S15">
-        <v>0.01847238199770754</v>
+        <v>0.006293515239454296</v>
       </c>
       <c r="T15">
-        <v>0.01847238199770754</v>
+        <v>0.006293515239454294</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H16">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J16">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N16">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O16">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P16">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q16">
-        <v>17089.68861530733</v>
+        <v>9871.539390415675</v>
       </c>
       <c r="R16">
-        <v>153807.197537766</v>
+        <v>88843.85451374108</v>
       </c>
       <c r="S16">
-        <v>0.05279144842212077</v>
+        <v>0.01875630361822174</v>
       </c>
       <c r="T16">
-        <v>0.05279144842212077</v>
+        <v>0.01875630361822174</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="H17">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="I17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="J17">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N17">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O17">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P17">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q17">
-        <v>56.92808391506445</v>
+        <v>71.61954989038891</v>
       </c>
       <c r="R17">
-        <v>512.35275523558</v>
+        <v>644.5759490135001</v>
       </c>
       <c r="S17">
-        <v>0.0001758555157687548</v>
+        <v>0.0001360798928735216</v>
       </c>
       <c r="T17">
-        <v>0.0001758555157687548</v>
+        <v>0.0001360798928735216</v>
       </c>
     </row>
   </sheetData>
